--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed1/result_data_RandomForest.xlsx
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.927400000000003</v>
+        <v>4.824000000000003</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.29329999999999</v>
+        <v>-14.1</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.696599999999997</v>
+        <v>-7.9056</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.49200000000001</v>
+        <v>-14.7268</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.269799999999996</v>
+        <v>6.265699999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.0297</v>
+        <v>-12.26669999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.739799999999997</v>
+        <v>-6.569600000000003</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.698000000000002</v>
+        <v>9.684400000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.0744</v>
+        <v>-12.3488</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.239199999999995</v>
+        <v>-8.509199999999995</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
